--- a/templates/rebill.xlsx
+++ b/templates/rebill.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.ds.fedex.com\vdi-oz\U5\5194105\Documents\R66\Templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="11160"/>
   </bookViews>
@@ -18,8 +13,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$52</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,61 +22,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>TEST_INPUT_NBR</t>
+  </si>
+  <si>
+    <t>TIN_COUNT</t>
+  </si>
+  <si>
+    <t>TRKNGNBR</t>
+  </si>
+  <si>
+    <t>REASON_CODE</t>
+  </si>
+  <si>
+    <t>REBILL_ACCT</t>
+  </si>
+  <si>
+    <t>INVOICE_NBR_1</t>
+  </si>
+  <si>
+    <t>INVOICE_NBR_2</t>
+  </si>
+  <si>
+    <t>MIG</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>RS_TYPE</t>
+  </si>
+  <si>
+    <t>COMPANY</t>
+  </si>
+  <si>
+    <t>WORKTYPE</t>
+  </si>
+  <si>
+    <t>ORIGIN_LOC</t>
+  </si>
+  <si>
+    <t>DEST_LOC</t>
+  </si>
+  <si>
+    <t>DIM_VOL</t>
+  </si>
+  <si>
+    <t>SHIPPER_REF</t>
+  </si>
+  <si>
+    <t>RECP_ADDRESS</t>
+  </si>
+  <si>
+    <t>SHIPPER_ADDRESS</t>
+  </si>
+  <si>
+    <t>ACC_NBR_DEL_STATUS</t>
+  </si>
+  <si>
+    <t>SVC_BASE</t>
+  </si>
+  <si>
+    <t>CREDIT_CARD_DTL</t>
+  </si>
+  <si>
+    <t>PRE_RATE_SCENARIOS</t>
+  </si>
+  <si>
+    <t>EXP_PIECES</t>
+  </si>
+  <si>
+    <t>EXP_ACTUAL_WEIGHT</t>
+  </si>
+  <si>
+    <t>EXP_ADJ_WEIGHT</t>
+  </si>
+  <si>
+    <t>CREDIT_CARD_DTL_1</t>
+  </si>
   <si>
     <t>RESULT</t>
   </si>
   <si>
     <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>TEST_INPUT_NBR</t>
-  </si>
-  <si>
-    <t>TIN_COUNT</t>
-  </si>
-  <si>
-    <t>TRKNGNBR</t>
-  </si>
-  <si>
-    <t>REASON_CODE</t>
-  </si>
-  <si>
-    <t>REBILL_ACCT</t>
-  </si>
-  <si>
-    <t>INVOICE_NBR_1</t>
-  </si>
-  <si>
-    <t>INVOICE_NBR_2</t>
-  </si>
-  <si>
-    <t>MIG</t>
-  </si>
-  <si>
-    <t>REGION</t>
-  </si>
-  <si>
-    <t>LOGIN</t>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-  </si>
-  <si>
-    <t>RS_TYPE</t>
-  </si>
-  <si>
-    <t>COMPANY</t>
-  </si>
-  <si>
-    <t>WORKTYPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,21 +422,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P398"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AD398"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
@@ -416,1320 +453,1376 @@
     <col min="14" max="14" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="10.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="16384" width="8.7109375" style="1" collapsed="1"/>
+    <col min="17" max="17" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="17.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="21" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="11.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="20.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="16.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="16384" width="8.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2"/>
       <c r="B2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="A3"/>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30">
       <c r="A4"/>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30">
       <c r="A5"/>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30">
       <c r="A6"/>
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30">
       <c r="A7"/>
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30">
       <c r="A8"/>
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30">
       <c r="A9"/>
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30">
       <c r="A10"/>
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30">
       <c r="A11"/>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30">
       <c r="A12"/>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30">
       <c r="A13"/>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30">
       <c r="A14"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30">
       <c r="A15"/>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30">
       <c r="A16"/>
       <c r="B16"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17"/>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18"/>
       <c r="B18"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30"/>
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32"/>
       <c r="B32"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33"/>
       <c r="B33"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34"/>
       <c r="B34"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35"/>
       <c r="B35"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36"/>
       <c r="B36"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37"/>
       <c r="B37"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38"/>
       <c r="B38"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39"/>
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40"/>
       <c r="B40"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41"/>
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42"/>
       <c r="B42"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43"/>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44"/>
       <c r="B44"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46"/>
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47"/>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48"/>
       <c r="B48"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49"/>
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50"/>
       <c r="B50"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51"/>
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52"/>
       <c r="B52"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53"/>
       <c r="B53"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54"/>
       <c r="B54"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55"/>
       <c r="B55"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56"/>
       <c r="B56"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57"/>
       <c r="B57"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58"/>
       <c r="B58"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59"/>
       <c r="B59"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60"/>
       <c r="B60"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61"/>
       <c r="B61"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62"/>
       <c r="B62"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63"/>
       <c r="B63"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64"/>
       <c r="B64"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65"/>
       <c r="B65"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66"/>
       <c r="B66"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67"/>
       <c r="B67"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68"/>
       <c r="B68"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69"/>
       <c r="B69"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70"/>
       <c r="B70"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71"/>
       <c r="B71"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72"/>
       <c r="B72"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73"/>
       <c r="B73"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="B75"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="B77"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="B79"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="B80"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2">
       <c r="B81"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2">
       <c r="B82"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2">
       <c r="B83"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2">
       <c r="B84"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2">
       <c r="B85"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2">
       <c r="B86"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2">
       <c r="B87"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2">
       <c r="B88"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2">
       <c r="B89"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2">
       <c r="B90"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2">
       <c r="B91"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2">
       <c r="B92"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2">
       <c r="B93"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2">
       <c r="B94"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2">
       <c r="B95"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2">
       <c r="B96"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2">
       <c r="B97"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2">
       <c r="B98"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2">
       <c r="B99"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2">
       <c r="B100"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2">
       <c r="B101"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2">
       <c r="B102"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2">
       <c r="B103"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2">
       <c r="B104"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2">
       <c r="B105"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2">
       <c r="B106"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2">
       <c r="B107"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2">
       <c r="B108"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2">
       <c r="B109"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2">
       <c r="B110"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2">
       <c r="B111"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2">
       <c r="B112"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2">
       <c r="B113"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2">
       <c r="B114"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2">
       <c r="B115"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2">
       <c r="B116"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2">
       <c r="B117"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2">
       <c r="B118"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2">
       <c r="B119"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2">
       <c r="B120"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2">
       <c r="B121"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2">
       <c r="B122"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2">
       <c r="B123"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2">
       <c r="B124"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2">
       <c r="B125"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2">
       <c r="B126"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2">
       <c r="B127"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2">
       <c r="B128"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2">
       <c r="B129"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2">
       <c r="B130"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2">
       <c r="B131"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2">
       <c r="B132"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2">
       <c r="B133"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2">
       <c r="B134"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2">
       <c r="B135"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2">
       <c r="B136"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2">
       <c r="B137"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2">
       <c r="B138"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2">
       <c r="B139"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2">
       <c r="B140"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2">
       <c r="B141"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2">
       <c r="B142"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2">
       <c r="B143"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2">
       <c r="B144"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2">
       <c r="B145"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2">
       <c r="B146"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2">
       <c r="B147"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2">
       <c r="B148"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2">
       <c r="B149"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2">
       <c r="B150"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2">
       <c r="B151"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2">
       <c r="B152"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2">
       <c r="B153"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2">
       <c r="B154"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2">
       <c r="B155"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2">
       <c r="B156"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2">
       <c r="B157"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2">
       <c r="B158"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2">
       <c r="B159"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2">
       <c r="B160"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2">
       <c r="B161"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2">
       <c r="B162"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2">
       <c r="B163"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2">
       <c r="B164"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2">
       <c r="B165"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2">
       <c r="B166"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2">
       <c r="B167"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2">
       <c r="B168"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2">
       <c r="B169"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2">
       <c r="B170"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2">
       <c r="B171"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2">
       <c r="B172"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2">
       <c r="B173"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2">
       <c r="B174"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2">
       <c r="B175"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2">
       <c r="B176"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2">
       <c r="B177"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2">
       <c r="B178"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2">
       <c r="B179"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2">
       <c r="B180"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2">
       <c r="B181"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2">
       <c r="B182"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2">
       <c r="B183"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2">
       <c r="B184"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2">
       <c r="B185"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2">
       <c r="B186"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2">
       <c r="B187"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2">
       <c r="B188"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2">
       <c r="B189"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2">
       <c r="B190"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2">
       <c r="B191"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2">
       <c r="B192"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2">
       <c r="B193"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2">
       <c r="B194"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2">
       <c r="B195"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2">
       <c r="B196"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2">
       <c r="B197"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2">
       <c r="B198"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2">
       <c r="B199"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2">
       <c r="B200"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2">
       <c r="B201"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2">
       <c r="B202"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2">
       <c r="B203"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2">
       <c r="B204"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2">
       <c r="B205"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2">
       <c r="B206"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2">
       <c r="B207"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2">
       <c r="B208"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2">
       <c r="B209"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2">
       <c r="B210"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2">
       <c r="B211"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2">
       <c r="B212"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2">
       <c r="B213"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2">
       <c r="B214"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2">
       <c r="B215"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2">
       <c r="B216"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2">
       <c r="B217"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2">
       <c r="B218"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2">
       <c r="B219"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2">
       <c r="B220"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2">
       <c r="B221"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2">
       <c r="B222"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2">
       <c r="B223"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2">
       <c r="B224"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2">
       <c r="B225"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2">
       <c r="B226"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2">
       <c r="B227"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2">
       <c r="B228"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2">
       <c r="B229"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2">
       <c r="B230"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2">
       <c r="B231"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2">
       <c r="B232"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2">
       <c r="B233"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2">
       <c r="B234"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2">
       <c r="B235"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2">
       <c r="B236"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2">
       <c r="B237"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2">
       <c r="B238"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2">
       <c r="B239"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2">
       <c r="B240"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2">
       <c r="B241"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2">
       <c r="B242"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2">
       <c r="B243"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2">
       <c r="B244"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2">
       <c r="B245"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2">
       <c r="B246"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2">
       <c r="B247"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2">
       <c r="B248"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2">
       <c r="B249"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2">
       <c r="B250"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2">
       <c r="B251"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2">
       <c r="B252"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2">
       <c r="B253"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2">
       <c r="B254"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2">
       <c r="B255"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2">
       <c r="B256"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2">
       <c r="B257"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2">
       <c r="B258"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2">
       <c r="B259"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2">
       <c r="B260"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2">
       <c r="B261"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2">
       <c r="B262"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2">
       <c r="B263"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2">
       <c r="B264"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2">
       <c r="B265"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2">
       <c r="B266"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2">
       <c r="B267"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2">
       <c r="B268"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2">
       <c r="B269"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2">
       <c r="B270"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2">
       <c r="B271"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2">
       <c r="B272"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2">
       <c r="B273"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2">
       <c r="B274"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2">
       <c r="B275"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2">
       <c r="B276"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2">
       <c r="B277"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2">
       <c r="B278"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2">
       <c r="B279"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2">
       <c r="B280"/>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2">
       <c r="B281"/>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2">
       <c r="B282"/>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2">
       <c r="B283"/>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2">
       <c r="B284"/>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2">
       <c r="B285"/>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2">
       <c r="B286"/>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:2">
       <c r="B287"/>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:2">
       <c r="B288"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:2">
       <c r="B289"/>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:2">
       <c r="B290"/>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:2">
       <c r="B291"/>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:2">
       <c r="B292"/>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:2">
       <c r="B293"/>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:2">
       <c r="B294"/>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:2">
       <c r="B295"/>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:2">
       <c r="B296"/>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2">
       <c r="B297"/>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:2">
       <c r="B298"/>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2">
       <c r="B299"/>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:2">
       <c r="B300"/>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:2">
       <c r="B301"/>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:2">
       <c r="B302"/>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:2">
       <c r="B303"/>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:2">
       <c r="B304"/>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2">
       <c r="B305"/>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2">
       <c r="B306"/>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2">
       <c r="B307"/>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2">
       <c r="B308"/>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2">
       <c r="B309"/>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2">
       <c r="B310"/>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2">
       <c r="B311"/>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2">
       <c r="B312"/>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2">
       <c r="B313"/>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:2">
       <c r="B314"/>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:2">
       <c r="B315"/>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:2">
       <c r="B316"/>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:2">
       <c r="B317"/>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:2">
       <c r="B318"/>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:2">
       <c r="B319"/>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:2">
       <c r="B320"/>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:2">
       <c r="B321"/>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:2">
       <c r="B322"/>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:2">
       <c r="B323"/>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:2">
       <c r="B324"/>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:2">
       <c r="B325"/>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2">
       <c r="B326"/>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:2">
       <c r="B327"/>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:2">
       <c r="B328"/>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:2">
       <c r="B329"/>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:2">
       <c r="B330"/>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:2">
       <c r="B331"/>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:2">
       <c r="B332"/>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:2">
       <c r="B333"/>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:2">
       <c r="B334"/>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:2">
       <c r="B335"/>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:2">
       <c r="B336"/>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:2">
       <c r="B337"/>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:2">
       <c r="B338"/>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:2">
       <c r="B339"/>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:2">
       <c r="B340"/>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:2">
       <c r="B341"/>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:2">
       <c r="B342"/>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:2">
       <c r="B343"/>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:2">
       <c r="B344"/>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:2">
       <c r="B345"/>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:2">
       <c r="B346"/>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:2">
       <c r="B347"/>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:2">
       <c r="B348"/>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:2">
       <c r="B349"/>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:2">
       <c r="B350"/>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:2">
       <c r="B351"/>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:2">
       <c r="B352"/>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:2">
       <c r="B353"/>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:2">
       <c r="B354"/>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:2">
       <c r="B355"/>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:2">
       <c r="B356"/>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:2">
       <c r="B357"/>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:2">
       <c r="B358"/>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:2">
       <c r="B359"/>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:2">
       <c r="B360"/>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:2">
       <c r="B361"/>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:2">
       <c r="B362"/>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:2">
       <c r="B363"/>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:2">
       <c r="B364"/>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:2">
       <c r="B365"/>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:2">
       <c r="B366"/>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:2">
       <c r="B367"/>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:2">
       <c r="B368"/>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:2">
       <c r="B369"/>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:2">
       <c r="B370"/>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:2">
       <c r="B371"/>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:2">
       <c r="B372"/>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:2">
       <c r="B373"/>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:2">
       <c r="B374"/>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:2">
       <c r="B375"/>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:2">
       <c r="B376"/>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:2">
       <c r="B377"/>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:2">
       <c r="B378"/>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:2">
       <c r="B379"/>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:2">
       <c r="B380"/>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:2">
       <c r="B381"/>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:2">
       <c r="B382"/>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:2">
       <c r="B383"/>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:2">
       <c r="B384"/>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:2">
       <c r="B385"/>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:2">
       <c r="B386"/>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:2">
       <c r="B387"/>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:2">
       <c r="B388"/>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:2">
       <c r="B389"/>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:2">
       <c r="B390"/>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:2">
       <c r="B391"/>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:2">
       <c r="B392"/>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:2">
       <c r="B393"/>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:2">
       <c r="B394"/>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:2">
       <c r="B395"/>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:2">
       <c r="B396"/>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:2">
       <c r="B397"/>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:2">
       <c r="B398"/>
     </row>
   </sheetData>
